--- a/EHR_code/Observational_study_supplemental_data.xlsx
+++ b/EHR_code/Observational_study_supplemental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/phagocytosis_beta2Agonists/EHR_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C644CEF-682B-9144-826F-D5ADB7AE1058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA59967-C0A7-6347-BDF8-77CA0397EB61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1060" windowWidth="29660" windowHeight="28140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="1060" windowWidth="29660" windowHeight="28140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoxRegressSummary" sheetId="2" r:id="rId1"/>
@@ -6068,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
@@ -6289,7 +6289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
